--- a/Bases_de_Dados_(2021-2022)/Peru Primera División_2022.xlsx
+++ b/Bases_de_Dados_(2021-2022)/Peru Primera División_2022.xlsx
@@ -2043,31 +2043,31 @@
         <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC8" t="n">
         <v>1.73</v>
@@ -2079,16 +2079,16 @@
         <v>3.69</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="AJ8" t="n">
         <v>2</v>
@@ -2097,19 +2097,19 @@
         <v>1.78</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP8" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -2133,28 +2133,28 @@
         <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="BB8" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BC8" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BE8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BF8" t="n">
         <v>2</v>
@@ -2855,31 +2855,31 @@
         <v>12</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>4.68</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC12" t="n">
         <v>1.64</v>
@@ -2891,16 +2891,16 @@
         <v>4.44</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ12" t="n">
         <v>1.85</v>
@@ -2909,19 +2909,19 @@
         <v>1.85</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP12" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AQ12" t="n">
         <v>0</v>
@@ -2945,28 +2945,28 @@
         <v>0</v>
       </c>
       <c r="AX12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AY12" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BA12" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BB12" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BC12" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BD12" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BE12" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BF12" t="n">
         <v>6</v>
@@ -5697,31 +5697,31 @@
         <v>9</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AA26" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AB26" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AC26" t="n">
         <v>1.37</v>
@@ -5733,16 +5733,16 @@
         <v>8</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>3.07</v>
       </c>
       <c r="AG26" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AH26" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI26" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AJ26" t="n">
         <v>1.75</v>
@@ -5751,19 +5751,19 @@
         <v>1.95</v>
       </c>
       <c r="AL26" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AM26" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AN26" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO26" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP26" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AQ26" t="n">
         <v>3</v>
@@ -5787,43 +5787,43 @@
         <v>2.59</v>
       </c>
       <c r="AX26" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AY26" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AZ26" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="BA26" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BB26" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BC26" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BD26" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BE26" t="n">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="BF26" t="n">
         <v>9</v>
       </c>
       <c r="BG26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BI26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BK26" t="n">
         <v>7</v>
@@ -7524,31 +7524,31 @@
         <v>12</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>4.35</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>3.29</v>
       </c>
       <c r="Z35" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AA35" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB35" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC35" t="n">
         <v>2.02</v>
@@ -7560,16 +7560,16 @@
         <v>3.75</v>
       </c>
       <c r="AF35" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG35" t="n">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AJ35" t="n">
         <v>1.98</v>
@@ -7578,19 +7578,19 @@
         <v>1.84</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -7614,28 +7614,28 @@
         <v>3.85</v>
       </c>
       <c r="AX35" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AY35" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BA35" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BB35" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="BC35" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BD35" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="BE35" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BF35" t="n">
         <v>5</v>
@@ -8214,13 +8214,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AU38" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="AV38" t="n">
         <v>1.2</v>
       </c>
       <c r="AW38" t="n">
-        <v>3.13</v>
+        <v>3.62</v>
       </c>
       <c r="AX38" t="n">
         <v>1.43</v>
@@ -9554,31 +9554,31 @@
         <v>11</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Z45" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AA45" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB45" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC45" t="n">
         <v>1.45</v>
@@ -9590,16 +9590,16 @@
         <v>6</v>
       </c>
       <c r="AF45" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AG45" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AH45" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI45" t="n">
-        <v>0</v>
+        <v>3.78</v>
       </c>
       <c r="AJ45" t="n">
         <v>1.65</v>
@@ -9608,19 +9608,19 @@
         <v>2.1</v>
       </c>
       <c r="AL45" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM45" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN45" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AO45" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AP45" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AQ45" t="n">
         <v>3</v>
@@ -9638,52 +9638,52 @@
         <v>2.1</v>
       </c>
       <c r="AV45" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="AW45" t="n">
-        <v>2.76</v>
+        <v>2.94</v>
       </c>
       <c r="AX45" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AY45" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ45" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="BA45" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BB45" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BC45" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="BD45" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BE45" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="BF45" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI45" t="n">
         <v>6</v>
-      </c>
-      <c r="BG45" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH45" t="n">
-        <v>7</v>
-      </c>
-      <c r="BI45" t="n">
-        <v>7</v>
       </c>
       <c r="BJ45" t="n">
         <v>13</v>
       </c>
       <c r="BK45" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46">
@@ -11178,31 +11178,31 @@
         <v>7</v>
       </c>
       <c r="T53" t="n">
-        <v>0</v>
+        <v>3.93</v>
       </c>
       <c r="U53" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>2.96</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X53" t="n">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="Y53" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA53" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC53" t="n">
         <v>3.5</v>
@@ -11214,16 +11214,16 @@
         <v>2.17</v>
       </c>
       <c r="AF53" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG53" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AH53" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI53" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ53" t="n">
         <v>2.06</v>
@@ -11232,19 +11232,19 @@
         <v>1.7</v>
       </c>
       <c r="AL53" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM53" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AN53" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AO53" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP53" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.5</v>
@@ -11268,28 +11268,28 @@
         <v>3.8</v>
       </c>
       <c r="AX53" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AY53" t="n">
-        <v>0</v>
+        <v>6.7</v>
       </c>
       <c r="AZ53" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="BA53" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BB53" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BC53" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BD53" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BE53" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BF53" t="n">
         <v>3</v>
@@ -11665,13 +11665,13 @@
         <v>0.61</v>
       </c>
       <c r="AU55" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AV55" t="n">
         <v>1.47</v>
       </c>
       <c r="AW55" t="n">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="AX55" t="n">
         <v>1.4</v>
@@ -12599,31 +12599,31 @@
         <v>9</v>
       </c>
       <c r="T60" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="U60" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="V60" t="n">
-        <v>0</v>
+        <v>3.54</v>
       </c>
       <c r="W60" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X60" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="Y60" t="n">
-        <v>0</v>
+        <v>2.91</v>
       </c>
       <c r="Z60" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AA60" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AB60" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC60" t="n">
         <v>2.95</v>
@@ -12635,16 +12635,16 @@
         <v>2.32</v>
       </c>
       <c r="AF60" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG60" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI60" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ60" t="n">
         <v>1.9</v>
@@ -12653,19 +12653,19 @@
         <v>1.82</v>
       </c>
       <c r="AL60" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AM60" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AN60" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AO60" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AP60" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.33</v>
@@ -12689,28 +12689,28 @@
         <v>2.6</v>
       </c>
       <c r="AX60" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AY60" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AZ60" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BA60" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BB60" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC60" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BD60" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BE60" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="BF60" t="n">
         <v>5</v>
@@ -12883,13 +12883,13 @@
         <v>1.28</v>
       </c>
       <c r="AU61" t="n">
-        <v>2.01</v>
+        <v>1.98</v>
       </c>
       <c r="AV61" t="n">
         <v>1.78</v>
       </c>
       <c r="AW61" t="n">
-        <v>3.79</v>
+        <v>3.76</v>
       </c>
       <c r="AX61" t="n">
         <v>1.45</v>
@@ -15035,31 +15035,31 @@
         <v>11</v>
       </c>
       <c r="T72" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U72" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="V72" t="n">
-        <v>0</v>
+        <v>5.24</v>
       </c>
       <c r="W72" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="X72" t="n">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="Y72" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="Z72" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AA72" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AB72" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC72" t="n">
         <v>1.5</v>
@@ -15071,16 +15071,16 @@
         <v>5.6</v>
       </c>
       <c r="AF72" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG72" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="AH72" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI72" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ72" t="n">
         <v>1.95</v>
@@ -15089,19 +15089,19 @@
         <v>1.83</v>
       </c>
       <c r="AL72" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AM72" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AN72" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO72" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AP72" t="n">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="AQ72" t="n">
         <v>2.33</v>
@@ -15119,46 +15119,46 @@
         <v>1.61</v>
       </c>
       <c r="AV72" t="n">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="AW72" t="n">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="AX72" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AY72" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AZ72" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="BA72" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BB72" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BC72" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BD72" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE72" t="n">
-        <v>0</v>
+        <v>2.74</v>
       </c>
       <c r="BF72" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BG72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BI72" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BJ72" t="n">
         <v>18</v>
@@ -15928,13 +15928,13 @@
         <v>1.28</v>
       </c>
       <c r="AU76" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="AV76" t="n">
         <v>1.29</v>
       </c>
       <c r="AW76" t="n">
-        <v>3.31</v>
+        <v>3.29</v>
       </c>
       <c r="AX76" t="n">
         <v>1.33</v>
@@ -16131,13 +16131,13 @@
         <v>1.06</v>
       </c>
       <c r="AU77" t="n">
-        <v>2.01</v>
+        <v>2.23</v>
       </c>
       <c r="AV77" t="n">
         <v>1.39</v>
       </c>
       <c r="AW77" t="n">
-        <v>3.4</v>
+        <v>3.62</v>
       </c>
       <c r="AX77" t="n">
         <v>1.2</v>
@@ -16456,31 +16456,31 @@
         <v>12</v>
       </c>
       <c r="T79" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="U79" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V79" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W79" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X79" t="n">
-        <v>0</v>
+        <v>2.73</v>
       </c>
       <c r="Y79" t="n">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="Z79" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA79" t="n">
-        <v>0</v>
+        <v>6.9</v>
       </c>
       <c r="AB79" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC79" t="n">
         <v>1.87</v>
@@ -16492,16 +16492,16 @@
         <v>3.8</v>
       </c>
       <c r="AF79" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG79" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AH79" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ79" t="n">
         <v>1.95</v>
@@ -16510,19 +16510,19 @@
         <v>1.8</v>
       </c>
       <c r="AL79" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM79" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AN79" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AO79" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AP79" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.25</v>
@@ -16546,28 +16546,28 @@
         <v>2.78</v>
       </c>
       <c r="AX79" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AY79" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AZ79" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BA79" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="BB79" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BC79" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BD79" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BE79" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="BF79" t="n">
         <v>6</v>
@@ -17471,31 +17471,31 @@
         <v>8</v>
       </c>
       <c r="T84" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="U84" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="V84" t="n">
-        <v>0</v>
+        <v>4.08</v>
       </c>
       <c r="W84" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X84" t="n">
-        <v>0</v>
+        <v>2.87</v>
       </c>
       <c r="Y84" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="Z84" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA84" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB84" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC84" t="n">
         <v>2.22</v>
@@ -17507,16 +17507,16 @@
         <v>2.98</v>
       </c>
       <c r="AF84" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AG84" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
       <c r="AH84" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AI84" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AJ84" t="n">
         <v>1.98</v>
@@ -17525,19 +17525,19 @@
         <v>1.76</v>
       </c>
       <c r="AL84" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AM84" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN84" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AO84" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AP84" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AQ84" t="n">
         <v>1</v>
@@ -17555,34 +17555,34 @@
         <v>1.28</v>
       </c>
       <c r="AV84" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AW84" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="AX84" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AY84" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AZ84" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="BA84" t="n">
         <v>0</v>
       </c>
       <c r="BB84" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BC84" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="BD84" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE84" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="BF84" t="n">
         <v>5</v>
@@ -18567,13 +18567,13 @@
         <v>1.63</v>
       </c>
       <c r="AU89" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="AV89" t="n">
         <v>1.61</v>
       </c>
       <c r="AW89" t="n">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="AX89" t="n">
         <v>1.8</v>
@@ -19379,13 +19379,13 @@
         <v>2</v>
       </c>
       <c r="AU93" t="n">
-        <v>2.1</v>
+        <v>2.26</v>
       </c>
       <c r="AV93" t="n">
         <v>1.96</v>
       </c>
       <c r="AW93" t="n">
-        <v>4.06</v>
+        <v>4.22</v>
       </c>
       <c r="AX93" t="n">
         <v>1.65</v>
@@ -19785,13 +19785,13 @@
         <v>0.78</v>
       </c>
       <c r="AU95" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="AV95" t="n">
         <v>1.57</v>
       </c>
       <c r="AW95" t="n">
-        <v>3.65</v>
+        <v>3.64</v>
       </c>
       <c r="AX95" t="n">
         <v>1.33</v>
@@ -20313,31 +20313,31 @@
         <v>13</v>
       </c>
       <c r="T98" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="U98" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V98" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="W98" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X98" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z98" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA98" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB98" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC98" t="n">
         <v>2.5</v>
@@ -20349,16 +20349,16 @@
         <v>2.65</v>
       </c>
       <c r="AF98" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG98" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AH98" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI98" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AJ98" t="n">
         <v>2</v>
@@ -20367,19 +20367,19 @@
         <v>1.8</v>
       </c>
       <c r="AL98" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM98" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN98" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AO98" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP98" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.6</v>
@@ -20403,28 +20403,28 @@
         <v>2.66</v>
       </c>
       <c r="AX98" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AY98" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AZ98" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="BA98" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BB98" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BC98" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BD98" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BE98" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BF98" t="n">
         <v>4</v>
@@ -20597,13 +20597,13 @@
         <v>0.61</v>
       </c>
       <c r="AU99" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="AV99" t="n">
         <v>1.3</v>
       </c>
       <c r="AW99" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AX99" t="n">
         <v>1.25</v>
@@ -21531,31 +21531,31 @@
         <v>19</v>
       </c>
       <c r="T104" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="U104" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="V104" t="n">
-        <v>0</v>
+        <v>5.12</v>
       </c>
       <c r="W104" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X104" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="Y104" t="n">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="Z104" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AA104" t="n">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AB104" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC104" t="n">
         <v>2.2</v>
@@ -21567,16 +21567,16 @@
         <v>3.45</v>
       </c>
       <c r="AF104" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG104" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AH104" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AI104" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ104" t="n">
         <v>2.02</v>
@@ -21585,19 +21585,19 @@
         <v>1.71</v>
       </c>
       <c r="AL104" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM104" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN104" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AO104" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AQ104" t="n">
         <v>1</v>
@@ -21615,34 +21615,34 @@
         <v>1.26</v>
       </c>
       <c r="AV104" t="n">
-        <v>0.77</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AW104" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
       <c r="AX104" t="n">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AY104" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="AZ104" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="BA104" t="n">
         <v>0</v>
       </c>
       <c r="BB104" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BC104" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BD104" t="n">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="BE104" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="BF104" t="n">
         <v>6</v>
@@ -21651,16 +21651,16 @@
         <v>5</v>
       </c>
       <c r="BH104" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BI104" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BJ104" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BK104" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105">
@@ -22830,13 +22830,13 @@
         <v>1.06</v>
       </c>
       <c r="AU110" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="AV110" t="n">
         <v>1.2</v>
       </c>
       <c r="AW110" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AX110" t="n">
         <v>1.71</v>
@@ -23561,31 +23561,31 @@
         <v>26</v>
       </c>
       <c r="T114" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="U114" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V114" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="W114" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X114" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="Y114" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z114" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA114" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB114" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC114" t="n">
         <v>3.82</v>
@@ -23597,16 +23597,16 @@
         <v>1.73</v>
       </c>
       <c r="AF114" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG114" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH114" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AI114" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ114" t="n">
         <v>1.89</v>
@@ -23615,19 +23615,19 @@
         <v>1.81</v>
       </c>
       <c r="AL114" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM114" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AN114" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO114" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP114" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AQ114" t="n">
         <v>1.33</v>
@@ -23651,28 +23651,28 @@
         <v>3.16</v>
       </c>
       <c r="AX114" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AY114" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ114" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BA114" t="n">
         <v>0</v>
       </c>
       <c r="BB114" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC114" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BD114" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="BE114" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="BF114" t="n">
         <v>5</v>
@@ -24048,13 +24048,13 @@
         <v>1.45</v>
       </c>
       <c r="AU116" t="n">
-        <v>2.14</v>
+        <v>2.13</v>
       </c>
       <c r="AV116" t="n">
         <v>1.77</v>
       </c>
       <c r="AW116" t="n">
-        <v>3.91</v>
+        <v>3.9</v>
       </c>
       <c r="AX116" t="n">
         <v>2.07</v>
@@ -24576,31 +24576,31 @@
         <v>18</v>
       </c>
       <c r="T119" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="U119" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="V119" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="W119" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X119" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Y119" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z119" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AA119" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC119" t="n">
         <v>1.36</v>
@@ -24612,16 +24612,16 @@
         <v>6.74</v>
       </c>
       <c r="AF119" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG119" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AH119" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI119" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ119" t="n">
         <v>1.77</v>
@@ -24630,19 +24630,19 @@
         <v>1.92</v>
       </c>
       <c r="AL119" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM119" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AN119" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AO119" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AP119" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ119" t="n">
         <v>3</v>
@@ -24660,52 +24660,52 @@
         <v>2.03</v>
       </c>
       <c r="AV119" t="n">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="AW119" t="n">
-        <v>2.87</v>
+        <v>2.91</v>
       </c>
       <c r="AX119" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AY119" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="AZ119" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BA119" t="n">
         <v>0</v>
       </c>
       <c r="BB119" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BC119" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="BD119" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BE119" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BF119" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BG119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BI119" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BJ119" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BK119" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120">
@@ -25672,13 +25672,13 @@
         <v>1.28</v>
       </c>
       <c r="AU124" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AV124" t="n">
         <v>1.38</v>
       </c>
       <c r="AW124" t="n">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AX124" t="n">
         <v>2.38</v>
@@ -26687,13 +26687,13 @@
         <v>0.72</v>
       </c>
       <c r="AU129" t="n">
-        <v>2.15</v>
+        <v>2.28</v>
       </c>
       <c r="AV129" t="n">
         <v>1.33</v>
       </c>
       <c r="AW129" t="n">
-        <v>3.48</v>
+        <v>3.61</v>
       </c>
       <c r="AX129" t="n">
         <v>1.17</v>
@@ -26890,13 +26890,13 @@
         <v>2</v>
       </c>
       <c r="AU130" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AV130" t="n">
         <v>1.73</v>
       </c>
       <c r="AW130" t="n">
-        <v>3.54</v>
+        <v>3.55</v>
       </c>
       <c r="AX130" t="n">
         <v>1.91</v>
@@ -27905,13 +27905,13 @@
         <v>1.44</v>
       </c>
       <c r="AU135" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AV135" t="n">
         <v>1.68</v>
       </c>
       <c r="AW135" t="n">
-        <v>3.7</v>
+        <v>3.69</v>
       </c>
       <c r="AX135" t="n">
         <v>0</v>
@@ -28027,31 +28027,31 @@
         <v>11</v>
       </c>
       <c r="T136" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="U136" t="n">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="V136" t="n">
-        <v>0</v>
+        <v>4.12</v>
       </c>
       <c r="W136" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="X136" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="Y136" t="n">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="Z136" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA136" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AB136" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AC136" t="n">
         <v>2.47</v>
@@ -28063,16 +28063,16 @@
         <v>2.69</v>
       </c>
       <c r="AF136" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AG136" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AH136" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AI136" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="AJ136" t="n">
         <v>1.97</v>
@@ -28081,19 +28081,19 @@
         <v>1.74</v>
       </c>
       <c r="AL136" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AM136" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AN136" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO136" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AP136" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AQ136" t="n">
         <v>1.25</v>
@@ -28111,19 +28111,19 @@
         <v>1.58</v>
       </c>
       <c r="AV136" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="AW136" t="n">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AX136" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AY136" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ136" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="BA136" t="n">
         <v>0</v>
@@ -28132,28 +28132,28 @@
         <v>0</v>
       </c>
       <c r="BC136" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BD136" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="BE136" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BF136" t="n">
         <v>4</v>
       </c>
       <c r="BG136" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BH136" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BI136" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ136" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK136" t="n">
         <v>13</v>
@@ -28311,13 +28311,13 @@
         <v>1.28</v>
       </c>
       <c r="AU137" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AV137" t="n">
         <v>1.37</v>
       </c>
       <c r="AW137" t="n">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="AX137" t="n">
         <v>1.58</v>
@@ -28920,13 +28920,13 @@
         <v>1.28</v>
       </c>
       <c r="AU140" t="n">
-        <v>2.07</v>
+        <v>2.12</v>
       </c>
       <c r="AV140" t="n">
         <v>1.29</v>
       </c>
       <c r="AW140" t="n">
-        <v>3.36</v>
+        <v>3.41</v>
       </c>
       <c r="AX140" t="n">
         <v>1.35</v>
@@ -30341,13 +30341,13 @@
         <v>0.83</v>
       </c>
       <c r="AU147" t="n">
-        <v>2.18</v>
+        <v>2.29</v>
       </c>
       <c r="AV147" t="n">
         <v>1.43</v>
       </c>
       <c r="AW147" t="n">
-        <v>3.61</v>
+        <v>3.72</v>
       </c>
       <c r="AX147" t="n">
         <v>1.06</v>
@@ -31275,31 +31275,31 @@
         <v>-1</v>
       </c>
       <c r="T152" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="U152" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V152" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="W152" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X152" t="n">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z152" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA152" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB152" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC152" t="n">
         <v>2.5</v>
@@ -31311,16 +31311,16 @@
         <v>2.62</v>
       </c>
       <c r="AF152" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG152" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH152" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI152" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ152" t="n">
         <v>1.9</v>
@@ -31329,19 +31329,19 @@
         <v>1.73</v>
       </c>
       <c r="AL152" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM152" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AN152" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AO152" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP152" t="n">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AQ152" t="n">
         <v>1.29</v>
@@ -31365,28 +31365,28 @@
         <v>2.74</v>
       </c>
       <c r="AX152" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AY152" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ152" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="BA152" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BB152" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BC152" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="BD152" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BE152" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="BF152" t="n">
         <v>-1</v>
@@ -31559,13 +31559,13 @@
         <v>1.63</v>
       </c>
       <c r="AU153" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="AV153" t="n">
         <v>1.61</v>
       </c>
       <c r="AW153" t="n">
-        <v>3.63</v>
+        <v>3.62</v>
       </c>
       <c r="AX153" t="n">
         <v>1.63</v>
@@ -32168,13 +32168,13 @@
         <v>1.28</v>
       </c>
       <c r="AU156" t="n">
-        <v>2.14</v>
+        <v>2.19</v>
       </c>
       <c r="AV156" t="n">
         <v>1.39</v>
       </c>
       <c r="AW156" t="n">
-        <v>3.53</v>
+        <v>3.58</v>
       </c>
       <c r="AX156" t="n">
         <v>1.05</v>
@@ -32493,31 +32493,31 @@
         <v>14</v>
       </c>
       <c r="T158" t="n">
-        <v>0</v>
+        <v>3.21</v>
       </c>
       <c r="U158" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="V158" t="n">
-        <v>0</v>
+        <v>3.86</v>
       </c>
       <c r="W158" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="X158" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="Y158" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Z158" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA158" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AB158" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AC158" t="n">
         <v>2.39</v>
@@ -32529,16 +32529,16 @@
         <v>2.75</v>
       </c>
       <c r="AF158" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AG158" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AH158" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AI158" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ158" t="n">
         <v>2.1</v>
@@ -32547,19 +32547,19 @@
         <v>1.67</v>
       </c>
       <c r="AL158" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM158" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN158" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AO158" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP158" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="AQ158" t="n">
         <v>0.44</v>
@@ -32583,46 +32583,46 @@
         <v>2.37</v>
       </c>
       <c r="AX158" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AY158" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AZ158" t="n">
-        <v>0</v>
+        <v>2.76</v>
       </c>
       <c r="BA158" t="n">
         <v>0</v>
       </c>
       <c r="BB158" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BC158" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BD158" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="BE158" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BF158" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG158" t="n">
         <v>3</v>
       </c>
       <c r="BH158" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI158" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ158" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK158" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="159">
@@ -33589,13 +33589,13 @@
         <v>1.11</v>
       </c>
       <c r="AU163" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="AV163" t="n">
         <v>1.42</v>
       </c>
       <c r="AW163" t="n">
-        <v>2.95</v>
+        <v>2.96</v>
       </c>
       <c r="AX163" t="n">
         <v>2.3</v>
@@ -34198,13 +34198,13 @@
         <v>0.11</v>
       </c>
       <c r="AU166" t="n">
-        <v>2.21</v>
+        <v>2.3</v>
       </c>
       <c r="AV166" t="n">
         <v>1.31</v>
       </c>
       <c r="AW166" t="n">
-        <v>3.52</v>
+        <v>3.61</v>
       </c>
       <c r="AX166" t="n">
         <v>0</v>
@@ -34604,13 +34604,13 @@
         <v>2</v>
       </c>
       <c r="AU168" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="AV168" t="n">
         <v>1.57</v>
       </c>
       <c r="AW168" t="n">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="AX168" t="n">
         <v>3.98</v>
@@ -35132,31 +35132,31 @@
         <v>8</v>
       </c>
       <c r="T171" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="U171" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V171" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="W171" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="X171" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Y171" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Z171" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA171" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AB171" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC171" t="n">
         <v>3.5</v>
@@ -35168,16 +35168,16 @@
         <v>1.95</v>
       </c>
       <c r="AF171" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG171" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="AH171" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI171" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AJ171" t="n">
         <v>1.96</v>
@@ -35186,19 +35186,19 @@
         <v>1.68</v>
       </c>
       <c r="AL171" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM171" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN171" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AO171" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AP171" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AQ171" t="n">
         <v>1.13</v>
@@ -35222,28 +35222,28 @@
         <v>2.95</v>
       </c>
       <c r="AX171" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="AY171" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ171" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="BA171" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="BB171" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="BC171" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BD171" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BE171" t="n">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="BF171" t="n">
         <v>6</v>
@@ -35416,13 +35416,13 @@
         <v>0.72</v>
       </c>
       <c r="AU172" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="AV172" t="n">
         <v>1.34</v>
       </c>
       <c r="AW172" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="AX172" t="n">
         <v>1.52</v>
@@ -36025,13 +36025,13 @@
         <v>1.17</v>
       </c>
       <c r="AU175" t="n">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="AV175" t="n">
         <v>1.5</v>
       </c>
       <c r="AW175" t="n">
-        <v>3.77</v>
+        <v>3.84</v>
       </c>
       <c r="AX175" t="n">
         <v>1.22</v>
@@ -36431,13 +36431,13 @@
         <v>1.45</v>
       </c>
       <c r="AU177" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="AV177" t="n">
         <v>1.79</v>
       </c>
       <c r="AW177" t="n">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="AX177" t="n">
         <v>3.24</v>
@@ -36553,31 +36553,31 @@
         <v>16</v>
       </c>
       <c r="T178" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U178" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V178" t="n">
-        <v>0</v>
+        <v>5.99</v>
       </c>
       <c r="W178" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="X178" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="Y178" t="n">
-        <v>0</v>
+        <v>3.14</v>
       </c>
       <c r="Z178" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA178" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AB178" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC178" t="n">
         <v>1.77</v>
@@ -36589,16 +36589,16 @@
         <v>4.5</v>
       </c>
       <c r="AF178" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG178" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH178" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI178" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ178" t="n">
         <v>2</v>
@@ -36607,19 +36607,19 @@
         <v>1.82</v>
       </c>
       <c r="AL178" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AM178" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AN178" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AO178" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP178" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AQ178" t="n">
         <v>1.11</v>
@@ -36643,13 +36643,13 @@
         <v>2.87</v>
       </c>
       <c r="AX178" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AY178" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AZ178" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="BA178" t="n">
         <v>0</v>
@@ -36661,10 +36661,10 @@
         <v>0</v>
       </c>
       <c r="BD178" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BE178" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BF178" t="n">
         <v>8</v>
@@ -36837,13 +36837,13 @@
         <v>0.83</v>
       </c>
       <c r="AU179" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AV179" t="n">
         <v>1.41</v>
       </c>
       <c r="AW179" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AX179" t="n">
         <v>1.3</v>
@@ -37243,13 +37243,13 @@
         <v>0.11</v>
       </c>
       <c r="AU181" t="n">
-        <v>2.24</v>
+        <v>2.23</v>
       </c>
       <c r="AV181" t="n">
         <v>1.29</v>
       </c>
       <c r="AW181" t="n">
-        <v>3.53</v>
+        <v>3.52</v>
       </c>
       <c r="AX181" t="n">
         <v>1.2</v>
@@ -37568,31 +37568,31 @@
         <v>13</v>
       </c>
       <c r="T183" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="U183" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="V183" t="n">
-        <v>0</v>
+        <v>8.41</v>
       </c>
       <c r="W183" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X183" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="Y183" t="n">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="Z183" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AA183" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AB183" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC183" t="n">
         <v>1.55</v>
@@ -37604,16 +37604,16 @@
         <v>6</v>
       </c>
       <c r="AF183" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG183" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AH183" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI183" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AJ183" t="n">
         <v>2</v>
@@ -37622,19 +37622,19 @@
         <v>1.75</v>
       </c>
       <c r="AL183" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AM183" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AN183" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AO183" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AP183" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="AQ183" t="n">
         <v>2.22</v>
@@ -37652,19 +37652,19 @@
         <v>1.77</v>
       </c>
       <c r="AV183" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AW183" t="n">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="AX183" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AY183" t="n">
-        <v>0</v>
+        <v>11.25</v>
       </c>
       <c r="AZ183" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BA183" t="n">
         <v>0</v>
@@ -37673,31 +37673,31 @@
         <v>0</v>
       </c>
       <c r="BC183" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BD183" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BE183" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="BF183" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH183" t="n">
         <v>10</v>
       </c>
-      <c r="BG183" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH183" t="n">
+      <c r="BI183" t="n">
         <v>6</v>
       </c>
-      <c r="BI183" t="n">
-        <v>4</v>
-      </c>
       <c r="BJ183" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="BK183" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="184">
@@ -37852,13 +37852,13 @@
         <v>1.28</v>
       </c>
       <c r="AU184" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AV184" t="n">
         <v>1.21</v>
       </c>
       <c r="AW184" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="AX184" t="n">
         <v>3.64</v>
@@ -38258,13 +38258,13 @@
         <v>0.72</v>
       </c>
       <c r="AU186" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AV186" t="n">
         <v>1.5</v>
       </c>
       <c r="AW186" t="n">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="AX186" t="n">
         <v>2.1</v>
@@ -38867,13 +38867,13 @@
         <v>2</v>
       </c>
       <c r="AU189" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AV189" t="n">
         <v>1.61</v>
       </c>
       <c r="AW189" t="n">
-        <v>3.79</v>
+        <v>3.83</v>
       </c>
       <c r="AX189" t="n">
         <v>1.53</v>
@@ -40085,13 +40085,13 @@
         <v>1.63</v>
       </c>
       <c r="AU195" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AV195" t="n">
         <v>1.53</v>
       </c>
       <c r="AW195" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="AX195" t="n">
         <v>2.85</v>
@@ -40288,13 +40288,13 @@
         <v>1.44</v>
       </c>
       <c r="AU196" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AV196" t="n">
         <v>1.87</v>
       </c>
       <c r="AW196" t="n">
-        <v>4.08</v>
+        <v>4.11</v>
       </c>
       <c r="AX196" t="n">
         <v>1.26</v>
@@ -40410,31 +40410,31 @@
         <v>14</v>
       </c>
       <c r="T197" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="U197" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="V197" t="n">
-        <v>0</v>
+        <v>3.02</v>
       </c>
       <c r="W197" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="X197" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Y197" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="Z197" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="AA197" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AB197" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC197" t="n">
         <v>3.55</v>
@@ -40446,16 +40446,16 @@
         <v>1.92</v>
       </c>
       <c r="AF197" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG197" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="AH197" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI197" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="AJ197" t="n">
         <v>2.04</v>
@@ -40464,19 +40464,19 @@
         <v>1.84</v>
       </c>
       <c r="AL197" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="AM197" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN197" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AO197" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP197" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AQ197" t="n">
         <v>1.3</v>
@@ -40500,28 +40500,28 @@
         <v>3.26</v>
       </c>
       <c r="AX197" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AY197" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AZ197" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BA197" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="BB197" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BC197" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BD197" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BE197" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="BF197" t="n">
         <v>6</v>
@@ -40897,13 +40897,13 @@
         <v>1.11</v>
       </c>
       <c r="AU199" t="n">
-        <v>2.33</v>
+        <v>2.32</v>
       </c>
       <c r="AV199" t="n">
         <v>1.43</v>
       </c>
       <c r="AW199" t="n">
-        <v>3.76</v>
+        <v>3.75</v>
       </c>
       <c r="AX199" t="n">
         <v>1.27</v>
@@ -41100,13 +41100,13 @@
         <v>1.28</v>
       </c>
       <c r="AU200" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AV200" t="n">
         <v>1.44</v>
       </c>
       <c r="AW200" t="n">
-        <v>2.89</v>
+        <v>2.93</v>
       </c>
       <c r="AX200" t="n">
         <v>1.67</v>
@@ -41912,13 +41912,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AU204" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AV204" t="n">
         <v>1.25</v>
       </c>
       <c r="AW204" t="n">
-        <v>2.73</v>
+        <v>2.74</v>
       </c>
       <c r="AX204" t="n">
         <v>3.05</v>
@@ -42237,31 +42237,31 @@
         <v>10</v>
       </c>
       <c r="T206" t="n">
-        <v>0</v>
+        <v>2.39</v>
       </c>
       <c r="U206" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="V206" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="W206" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="X206" t="n">
-        <v>0</v>
+        <v>2.97</v>
       </c>
       <c r="Y206" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="Z206" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AA206" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AB206" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AC206" t="n">
         <v>1.6</v>
@@ -42273,16 +42273,16 @@
         <v>4.82</v>
       </c>
       <c r="AF206" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG206" t="n">
-        <v>0</v>
+        <v>8.75</v>
       </c>
       <c r="AH206" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI206" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AJ206" t="n">
         <v>1.91</v>
@@ -42291,19 +42291,19 @@
         <v>1.8</v>
       </c>
       <c r="AL206" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AM206" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AN206" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AO206" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP206" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AQ206" t="n">
         <v>1.36</v>
@@ -42321,34 +42321,34 @@
         <v>1.74</v>
       </c>
       <c r="AV206" t="n">
-        <v>1.04</v>
+        <v>1.08</v>
       </c>
       <c r="AW206" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="AX206" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AY206" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AZ206" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="BA206" t="n">
         <v>0</v>
       </c>
       <c r="BB206" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BC206" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BD206" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BE206" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="BF206" t="n">
         <v>5</v>
@@ -42357,16 +42357,16 @@
         <v>6</v>
       </c>
       <c r="BH206" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BI206" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BJ206" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK206" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="207">
@@ -42521,13 +42521,13 @@
         <v>0.72</v>
       </c>
       <c r="AU207" t="n">
-        <v>2.22</v>
+        <v>2.29</v>
       </c>
       <c r="AV207" t="n">
         <v>1.46</v>
       </c>
       <c r="AW207" t="n">
-        <v>3.68</v>
+        <v>3.75</v>
       </c>
       <c r="AX207" t="n">
         <v>1.21</v>
@@ -42724,13 +42724,13 @@
         <v>1.28</v>
       </c>
       <c r="AU208" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="AV208" t="n">
         <v>1.36</v>
       </c>
       <c r="AW208" t="n">
-        <v>3.19</v>
+        <v>3.23</v>
       </c>
       <c r="AX208" t="n">
         <v>1.71</v>
@@ -42927,13 +42927,13 @@
         <v>0.72</v>
       </c>
       <c r="AU209" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="AV209" t="n">
         <v>1.35</v>
       </c>
       <c r="AW209" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="AX209" t="n">
         <v>1.22</v>
@@ -43333,13 +43333,13 @@
         <v>1.11</v>
       </c>
       <c r="AU211" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="AV211" t="n">
         <v>1.36</v>
       </c>
       <c r="AW211" t="n">
-        <v>3.27</v>
+        <v>3.28</v>
       </c>
       <c r="AX211" t="n">
         <v>1.5</v>
@@ -43942,13 +43942,13 @@
         <v>0.83</v>
       </c>
       <c r="AU214" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="AV214" t="n">
         <v>1.41</v>
       </c>
       <c r="AW214" t="n">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="AX214" t="n">
         <v>1.8</v>
@@ -44064,31 +44064,31 @@
         <v>13</v>
       </c>
       <c r="T215" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="U215" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="V215" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="W215" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X215" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="Y215" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="Z215" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA215" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AB215" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC215" t="n">
         <v>3.05</v>
@@ -44100,16 +44100,16 @@
         <v>2.23</v>
       </c>
       <c r="AF215" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AG215" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH215" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AI215" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="AJ215" t="n">
         <v>1.87</v>
@@ -44118,19 +44118,19 @@
         <v>1.75</v>
       </c>
       <c r="AL215" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AM215" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AN215" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AO215" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP215" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AQ215" t="n">
         <v>1.18</v>
@@ -44154,28 +44154,28 @@
         <v>3.14</v>
       </c>
       <c r="AX215" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AY215" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AZ215" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="BA215" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB215" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="BC215" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BD215" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BE215" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="BF215" t="n">
         <v>7</v>
@@ -44754,13 +44754,13 @@
         <v>1.06</v>
       </c>
       <c r="AU218" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="AV218" t="n">
         <v>1.31</v>
       </c>
       <c r="AW218" t="n">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="AX218" t="n">
         <v>2.21</v>
@@ -44957,13 +44957,13 @@
         <v>2</v>
       </c>
       <c r="AU219" t="n">
-        <v>1.45</v>
+        <v>1.49</v>
       </c>
       <c r="AV219" t="n">
         <v>1.63</v>
       </c>
       <c r="AW219" t="n">
-        <v>3.08</v>
+        <v>3.12</v>
       </c>
       <c r="AX219" t="n">
         <v>4.95</v>
@@ -45276,37 +45276,37 @@
         <v>9</v>
       </c>
       <c r="R221" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S221" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="T221" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="U221" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="V221" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="W221" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X221" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y221" t="n">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="Z221" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AA221" t="n">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="AB221" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC221" t="n">
         <v>1.3</v>
@@ -45318,16 +45318,16 @@
         <v>8.029999999999999</v>
       </c>
       <c r="AF221" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG221" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH221" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI221" t="n">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="AJ221" t="n">
         <v>1.66</v>
@@ -45336,19 +45336,19 @@
         <v>2.09</v>
       </c>
       <c r="AL221" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AM221" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="AN221" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO221" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AP221" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="AQ221" t="n">
         <v>2.4</v>
@@ -45366,19 +45366,19 @@
         <v>2.15</v>
       </c>
       <c r="AV221" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AW221" t="n">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="AX221" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AY221" t="n">
-        <v>0</v>
+        <v>11.75</v>
       </c>
       <c r="AZ221" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="BA221" t="n">
         <v>0</v>
@@ -45387,31 +45387,31 @@
         <v>0</v>
       </c>
       <c r="BC221" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="BD221" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BE221" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BF221" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BG221" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BH221" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BI221" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BJ221" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BK221" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
     </row>
     <row r="222">
@@ -45566,13 +45566,13 @@
         <v>1.28</v>
       </c>
       <c r="AU222" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="AV222" t="n">
         <v>1.46</v>
       </c>
       <c r="AW222" t="n">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="AX222" t="n">
         <v>1.36</v>
@@ -45769,13 +45769,13 @@
         <v>0.61</v>
       </c>
       <c r="AU223" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AV223" t="n">
         <v>1.51</v>
       </c>
       <c r="AW223" t="n">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="AX223" t="n">
         <v>1.46</v>
@@ -45972,13 +45972,13 @@
         <v>1.28</v>
       </c>
       <c r="AU224" t="n">
-        <v>2.34</v>
+        <v>2.39</v>
       </c>
       <c r="AV224" t="n">
         <v>1.39</v>
       </c>
       <c r="AW224" t="n">
-        <v>3.73</v>
+        <v>3.78</v>
       </c>
       <c r="AX224" t="n">
         <v>1.21</v>
@@ -46500,31 +46500,31 @@
         <v>11</v>
       </c>
       <c r="T227" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="U227" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="V227" t="n">
-        <v>0</v>
+        <v>5.87</v>
       </c>
       <c r="W227" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="X227" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="Y227" t="n">
-        <v>0</v>
+        <v>2.79</v>
       </c>
       <c r="Z227" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AA227" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB227" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AC227" t="n">
         <v>1.63</v>
@@ -46536,16 +46536,16 @@
         <v>4.62</v>
       </c>
       <c r="AF227" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG227" t="n">
-        <v>0</v>
+        <v>9.5</v>
       </c>
       <c r="AH227" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI227" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AJ227" t="n">
         <v>1.84</v>
@@ -46554,19 +46554,19 @@
         <v>1.86</v>
       </c>
       <c r="AL227" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AM227" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AN227" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AO227" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP227" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="AQ227" t="n">
         <v>0.92</v>
@@ -46584,52 +46584,52 @@
         <v>2.08</v>
       </c>
       <c r="AV227" t="n">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AW227" t="n">
-        <v>3.23</v>
+        <v>3.34</v>
       </c>
       <c r="AX227" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AY227" t="n">
-        <v>0</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AZ227" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BA227" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="BB227" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="BC227" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="BD227" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BE227" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="BF227" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BG227" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BH227" t="n">
         <v>6</v>
       </c>
       <c r="BI227" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BJ227" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BK227" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="228">
@@ -46784,13 +46784,13 @@
         <v>0.72</v>
       </c>
       <c r="AU228" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="AV228" t="n">
         <v>1.44</v>
       </c>
       <c r="AW228" t="n">
-        <v>3.41</v>
+        <v>3.42</v>
       </c>
       <c r="AX228" t="n">
         <v>1.4</v>
@@ -47596,13 +47596,13 @@
         <v>0.72</v>
       </c>
       <c r="AU232" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="AV232" t="n">
         <v>1.33</v>
       </c>
       <c r="AW232" t="n">
-        <v>3.43</v>
+        <v>3.49</v>
       </c>
       <c r="AX232" t="n">
         <v>1.21</v>
@@ -47799,13 +47799,13 @@
         <v>0.83</v>
       </c>
       <c r="AU233" t="n">
-        <v>2.2</v>
+        <v>2.23</v>
       </c>
       <c r="AV233" t="n">
         <v>1.44</v>
       </c>
       <c r="AW233" t="n">
-        <v>3.64</v>
+        <v>3.67</v>
       </c>
       <c r="AX233" t="n">
         <v>1.03</v>
@@ -48205,13 +48205,13 @@
         <v>1.06</v>
       </c>
       <c r="AU235" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="AV235" t="n">
         <v>1.34</v>
       </c>
       <c r="AW235" t="n">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="AX235" t="n">
         <v>1.64</v>
@@ -48408,13 +48408,13 @@
         <v>1.28</v>
       </c>
       <c r="AU236" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="AV236" t="n">
         <v>1.44</v>
       </c>
       <c r="AW236" t="n">
-        <v>3.74</v>
+        <v>3.79</v>
       </c>
       <c r="AX236" t="n">
         <v>1.08</v>
@@ -49017,13 +49017,13 @@
         <v>0.78</v>
       </c>
       <c r="AU239" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="AV239" t="n">
         <v>1.52</v>
       </c>
       <c r="AW239" t="n">
-        <v>3.33</v>
+        <v>3.36</v>
       </c>
       <c r="AX239" t="n">
         <v>1.22</v>
@@ -49139,31 +49139,31 @@
         <v>13</v>
       </c>
       <c r="T240" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="U240" t="n">
-        <v>0</v>
+        <v>2.13</v>
       </c>
       <c r="V240" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="W240" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="X240" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="Y240" t="n">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="Z240" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA240" t="n">
-        <v>0</v>
+        <v>7.82</v>
       </c>
       <c r="AB240" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC240" t="n">
         <v>3.05</v>
@@ -49175,16 +49175,16 @@
         <v>2.18</v>
       </c>
       <c r="AF240" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG240" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AH240" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI240" t="n">
-        <v>0</v>
+        <v>2.71</v>
       </c>
       <c r="AJ240" t="n">
         <v>2.03</v>
@@ -49193,19 +49193,19 @@
         <v>1.7</v>
       </c>
       <c r="AL240" t="n">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AM240" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AN240" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AO240" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP240" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AQ240" t="n">
         <v>1.33</v>
@@ -49229,28 +49229,28 @@
         <v>3.2</v>
       </c>
       <c r="AX240" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AY240" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AZ240" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BA240" t="n">
         <v>0</v>
       </c>
       <c r="BB240" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="BC240" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="BD240" t="n">
-        <v>0</v>
+        <v>1.56</v>
       </c>
       <c r="BE240" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="BF240" t="n">
         <v>11</v>
@@ -49423,13 +49423,13 @@
         <v>2</v>
       </c>
       <c r="AU241" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AV241" t="n">
         <v>1.71</v>
       </c>
       <c r="AW241" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AX241" t="n">
         <v>7.5</v>
@@ -49626,13 +49626,13 @@
         <v>0.61</v>
       </c>
       <c r="AU242" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="AV242" t="n">
         <v>1.46</v>
       </c>
       <c r="AW242" t="n">
-        <v>3.78</v>
+        <v>3.77</v>
       </c>
       <c r="AX242" t="n">
         <v>1.18</v>
@@ -49748,31 +49748,31 @@
         <v>11</v>
       </c>
       <c r="T243" t="n">
-        <v>0</v>
+        <v>2.89</v>
       </c>
       <c r="U243" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="V243" t="n">
-        <v>0</v>
+        <v>3.91</v>
       </c>
       <c r="W243" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X243" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="Y243" t="n">
-        <v>0</v>
+        <v>2.99</v>
       </c>
       <c r="Z243" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA243" t="n">
-        <v>0</v>
+        <v>6.95</v>
       </c>
       <c r="AB243" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AC243" t="n">
         <v>2.05</v>
@@ -49784,16 +49784,16 @@
         <v>3.05</v>
       </c>
       <c r="AF243" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG243" t="n">
-        <v>0</v>
+        <v>10.75</v>
       </c>
       <c r="AH243" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AI243" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AJ243" t="n">
         <v>1.94</v>
@@ -49802,19 +49802,19 @@
         <v>1.86</v>
       </c>
       <c r="AL243" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="AM243" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="AN243" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AO243" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP243" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AQ243" t="n">
         <v>1.46</v>
@@ -49832,52 +49832,52 @@
         <v>1.77</v>
       </c>
       <c r="AV243" t="n">
-        <v>1.24</v>
+        <v>1.36</v>
       </c>
       <c r="AW243" t="n">
-        <v>3.01</v>
+        <v>3.13</v>
       </c>
       <c r="AX243" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AY243" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="AZ243" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BA243" t="n">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="BB243" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BC243" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BD243" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="BE243" t="n">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="BF243" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG243" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH243" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI243" t="n">
         <v>10</v>
       </c>
-      <c r="BH243" t="n">
-        <v>6</v>
-      </c>
-      <c r="BI243" t="n">
-        <v>5</v>
-      </c>
       <c r="BJ243" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BK243" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="244">
@@ -50032,13 +50032,13 @@
         <v>0.11</v>
       </c>
       <c r="AU244" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="AV244" t="n">
         <v>1.28</v>
       </c>
       <c r="AW244" t="n">
-        <v>3.55</v>
+        <v>3.58</v>
       </c>
       <c r="AX244" t="n">
         <v>1.06</v>
@@ -50235,13 +50235,13 @@
         <v>1.11</v>
       </c>
       <c r="AU245" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="AV245" t="n">
         <v>1.25</v>
       </c>
       <c r="AW245" t="n">
-        <v>2.94</v>
+        <v>2.95</v>
       </c>
       <c r="AX245" t="n">
         <v>1.95</v>
@@ -50438,13 +50438,13 @@
         <v>0.83</v>
       </c>
       <c r="AU246" t="n">
-        <v>2.14</v>
+        <v>2.2</v>
       </c>
       <c r="AV246" t="n">
         <v>1.42</v>
       </c>
       <c r="AW246" t="n">
-        <v>3.56</v>
+        <v>3.62</v>
       </c>
       <c r="AX246" t="n">
         <v>1.14</v>
@@ -51656,13 +51656,13 @@
         <v>0.61</v>
       </c>
       <c r="AU252" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="AV252" t="n">
         <v>1.44</v>
       </c>
       <c r="AW252" t="n">
-        <v>3.48</v>
+        <v>3.49</v>
       </c>
       <c r="AX252" t="n">
         <v>1.35</v>
@@ -51859,13 +51859,13 @@
         <v>2</v>
       </c>
       <c r="AU253" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AV253" t="n">
         <v>1.75</v>
       </c>
       <c r="AW253" t="n">
-        <v>3.46</v>
+        <v>3.48</v>
       </c>
       <c r="AX253" t="n">
         <v>3.15</v>
@@ -52062,13 +52062,13 @@
         <v>0.78</v>
       </c>
       <c r="AU254" t="n">
-        <v>2.32</v>
+        <v>2.36</v>
       </c>
       <c r="AV254" t="n">
         <v>1.46</v>
       </c>
       <c r="AW254" t="n">
-        <v>3.78</v>
+        <v>3.82</v>
       </c>
       <c r="AX254" t="n">
         <v>1.11</v>
@@ -52265,13 +52265,13 @@
         <v>0.72</v>
       </c>
       <c r="AU255" t="n">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="AV255" t="n">
         <v>1.34</v>
       </c>
       <c r="AW255" t="n">
-        <v>2.77</v>
+        <v>2.81</v>
       </c>
       <c r="AX255" t="n">
         <v>2.16</v>
@@ -52590,31 +52590,31 @@
         <v>7</v>
       </c>
       <c r="T257" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="U257" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="V257" t="n">
-        <v>0</v>
+        <v>5.22</v>
       </c>
       <c r="W257" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X257" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="Y257" t="n">
-        <v>0</v>
+        <v>3.23</v>
       </c>
       <c r="Z257" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AA257" t="n">
-        <v>0</v>
+        <v>7.7</v>
       </c>
       <c r="AB257" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC257" t="n">
         <v>1.87</v>
@@ -52626,16 +52626,16 @@
         <v>3.8</v>
       </c>
       <c r="AF257" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG257" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AH257" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AI257" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="AJ257" t="n">
         <v>2.1</v>
@@ -52644,19 +52644,19 @@
         <v>1.67</v>
       </c>
       <c r="AL257" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AM257" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AN257" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AO257" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP257" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AQ257" t="n">
         <v>1.31</v>
@@ -52680,13 +52680,13 @@
         <v>3.29</v>
       </c>
       <c r="AX257" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AY257" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AZ257" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BA257" t="n">
         <v>0</v>
@@ -52695,13 +52695,13 @@
         <v>0</v>
       </c>
       <c r="BC257" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BD257" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BE257" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BF257" t="n">
         <v>7</v>
@@ -53402,31 +53402,31 @@
         <v>9</v>
       </c>
       <c r="T261" t="n">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="U261" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="V261" t="n">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="W261" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="X261" t="n">
-        <v>0</v>
+        <v>2.58</v>
       </c>
       <c r="Y261" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="Z261" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA261" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AB261" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC261" t="n">
         <v>1.85</v>
@@ -53438,16 +53438,16 @@
         <v>4.17</v>
       </c>
       <c r="AF261" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG261" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AH261" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AI261" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AJ261" t="n">
         <v>1.88</v>
@@ -53456,19 +53456,19 @@
         <v>1.81</v>
       </c>
       <c r="AL261" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AM261" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AN261" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AO261" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP261" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AQ261" t="n">
         <v>2.31</v>
@@ -53486,52 +53486,52 @@
         <v>1.73</v>
       </c>
       <c r="AV261" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="AW261" t="n">
-        <v>3.04</v>
+        <v>3.18</v>
       </c>
       <c r="AX261" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AY261" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="AZ261" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="BA261" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="BB261" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="BC261" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BD261" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="BE261" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BF261" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG261" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH261" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI261" t="n">
         <v>4</v>
       </c>
-      <c r="BI261" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ261" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK261" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="262">
@@ -54295,13 +54295,13 @@
         <v>0.72</v>
       </c>
       <c r="AU265" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="AV265" t="n">
         <v>1.54</v>
       </c>
       <c r="AW265" t="n">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="AX265" t="n">
         <v>1.91</v>
@@ -54498,13 +54498,13 @@
         <v>1.28</v>
       </c>
       <c r="AU266" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AV266" t="n">
         <v>1.41</v>
       </c>
       <c r="AW266" t="n">
-        <v>3.17</v>
+        <v>3.2</v>
       </c>
       <c r="AX266" t="n">
         <v>2.85</v>
@@ -54701,13 +54701,13 @@
         <v>1.11</v>
       </c>
       <c r="AU267" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AV267" t="n">
         <v>1.26</v>
       </c>
       <c r="AW267" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="AX267" t="n">
         <v>1.07</v>
@@ -54904,13 +54904,13 @@
         <v>0.11</v>
       </c>
       <c r="AU268" t="n">
-        <v>2.17</v>
+        <v>2.22</v>
       </c>
       <c r="AV268" t="n">
         <v>1.28</v>
       </c>
       <c r="AW268" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AX268" t="n">
         <v>1.06</v>
@@ -55107,13 +55107,13 @@
         <v>1.44</v>
       </c>
       <c r="AU269" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AV269" t="n">
         <v>1.73</v>
       </c>
       <c r="AW269" t="n">
-        <v>3.51</v>
+        <v>3.54</v>
       </c>
       <c r="AX269" t="n">
         <v>1.73</v>
@@ -55310,13 +55310,13 @@
         <v>1.45</v>
       </c>
       <c r="AU270" t="n">
-        <v>2.26</v>
+        <v>2.31</v>
       </c>
       <c r="AV270" t="n">
         <v>1.86</v>
       </c>
       <c r="AW270" t="n">
-        <v>4.12</v>
+        <v>4.17</v>
       </c>
       <c r="AX270" t="n">
         <v>0</v>
@@ -55919,13 +55919,13 @@
         <v>0.72</v>
       </c>
       <c r="AU273" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="AV273" t="n">
         <v>1.31</v>
       </c>
       <c r="AW273" t="n">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="AX273" t="n">
         <v>2.4</v>
@@ -56122,13 +56122,13 @@
         <v>0.83</v>
       </c>
       <c r="AU274" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AV274" t="n">
         <v>1.36</v>
       </c>
       <c r="AW274" t="n">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="AX274" t="n">
         <v>0</v>
@@ -56244,31 +56244,31 @@
         <v>8</v>
       </c>
       <c r="T275" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U275" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="V275" t="n">
-        <v>0</v>
+        <v>7.1</v>
       </c>
       <c r="W275" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X275" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="Y275" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="Z275" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AA275" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AB275" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AC275" t="n">
         <v>1.58</v>
@@ -56280,16 +56280,16 @@
         <v>5</v>
       </c>
       <c r="AF275" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG275" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AH275" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI275" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ275" t="n">
         <v>1.78</v>
@@ -56298,19 +56298,19 @@
         <v>1.98</v>
       </c>
       <c r="AL275" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM275" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AN275" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AO275" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AP275" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
       <c r="AQ275" t="n">
         <v>1.29</v>
@@ -56334,13 +56334,13 @@
         <v>3.3</v>
       </c>
       <c r="AX275" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY275" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AZ275" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BA275" t="n">
         <v>0</v>
@@ -56349,13 +56349,13 @@
         <v>0</v>
       </c>
       <c r="BC275" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BD275" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BE275" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="BF275" t="n">
         <v>5</v>
@@ -56731,13 +56731,13 @@
         <v>1.06</v>
       </c>
       <c r="AU277" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="AV277" t="n">
         <v>1.29</v>
       </c>
       <c r="AW277" t="n">
-        <v>3.33</v>
+        <v>3.35</v>
       </c>
       <c r="AX277" t="n">
         <v>1.43</v>
@@ -57137,13 +57137,13 @@
         <v>1.45</v>
       </c>
       <c r="AU279" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="AV279" t="n">
         <v>1.78</v>
       </c>
       <c r="AW279" t="n">
-        <v>3.56</v>
+        <v>3.59</v>
       </c>
       <c r="AX279" t="n">
         <v>2.57</v>
@@ -57746,13 +57746,13 @@
         <v>0.11</v>
       </c>
       <c r="AU282" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="AV282" t="n">
         <v>1.3</v>
       </c>
       <c r="AW282" t="n">
-        <v>2.73</v>
+        <v>2.76</v>
       </c>
       <c r="AX282" t="n">
         <v>1.62</v>
@@ -57949,13 +57949,13 @@
         <v>1.11</v>
       </c>
       <c r="AU283" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="AV283" t="n">
         <v>1.31</v>
       </c>
       <c r="AW283" t="n">
-        <v>3.51</v>
+        <v>3.55</v>
       </c>
       <c r="AX283" t="n">
         <v>1.2</v>
@@ -58071,31 +58071,31 @@
         <v>15</v>
       </c>
       <c r="T284" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="U284" t="n">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="V284" t="n">
-        <v>0</v>
+        <v>6.15</v>
       </c>
       <c r="W284" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X284" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="Y284" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="Z284" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="AA284" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AB284" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AC284" t="n">
         <v>1.25</v>
@@ -58107,16 +58107,16 @@
         <v>10</v>
       </c>
       <c r="AF284" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AG284" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH284" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AI284" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AJ284" t="n">
         <v>1.76</v>
@@ -58125,19 +58125,19 @@
         <v>2.07</v>
       </c>
       <c r="AL284" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AM284" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="AN284" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AO284" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AP284" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="AQ284" t="n">
         <v>2.43</v>
@@ -58155,19 +58155,19 @@
         <v>2.12</v>
       </c>
       <c r="AV284" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AW284" t="n">
-        <v>3.47</v>
+        <v>3.61</v>
       </c>
       <c r="AX284" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AY284" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AZ284" t="n">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="BA284" t="n">
         <v>0</v>
@@ -58176,31 +58176,31 @@
         <v>0</v>
       </c>
       <c r="BC284" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="BD284" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BE284" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="BF284" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG284" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BH284" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BI284" t="n">
         <v>5</v>
       </c>
       <c r="BJ284" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BK284" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285">
@@ -58558,13 +58558,13 @@
         <v>0.72</v>
       </c>
       <c r="AU286" t="n">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="AV286" t="n">
         <v>1.53</v>
       </c>
       <c r="AW286" t="n">
-        <v>3.89</v>
+        <v>3.92</v>
       </c>
       <c r="AX286" t="n">
         <v>1.2</v>
@@ -58761,13 +58761,13 @@
         <v>1.28</v>
       </c>
       <c r="AU287" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="AV287" t="n">
         <v>1.41</v>
       </c>
       <c r="AW287" t="n">
-        <v>3.1</v>
+        <v>3.14</v>
       </c>
       <c r="AX287" t="n">
         <v>2.2</v>
@@ -59573,13 +59573,13 @@
         <v>0.83</v>
       </c>
       <c r="AU291" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AV291" t="n">
         <v>1.37</v>
       </c>
       <c r="AW291" t="n">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="AX291" t="n">
         <v>2.4</v>
@@ -59776,13 +59776,13 @@
         <v>0.72</v>
       </c>
       <c r="AU292" t="n">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="AV292" t="n">
         <v>1.29</v>
       </c>
       <c r="AW292" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="AX292" t="n">
         <v>1.95</v>
@@ -59979,13 +59979,13 @@
         <v>1.44</v>
       </c>
       <c r="AU293" t="n">
-        <v>2.23</v>
+        <v>2.27</v>
       </c>
       <c r="AV293" t="n">
         <v>1.72</v>
       </c>
       <c r="AW293" t="n">
-        <v>3.95</v>
+        <v>3.99</v>
       </c>
       <c r="AX293" t="n">
         <v>0</v>
@@ -60182,13 +60182,13 @@
         <v>1.63</v>
       </c>
       <c r="AU294" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AV294" t="n">
         <v>1.54</v>
       </c>
       <c r="AW294" t="n">
-        <v>3.29</v>
+        <v>3.31</v>
       </c>
       <c r="AX294" t="n">
         <v>2.4</v>
@@ -60304,31 +60304,31 @@
         <v>14</v>
       </c>
       <c r="T295" t="n">
-        <v>0</v>
+        <v>3.85</v>
       </c>
       <c r="U295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V295" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="W295" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="X295" t="n">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="Y295" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="Z295" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA295" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AB295" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AC295" t="n">
         <v>4.2</v>
@@ -60340,16 +60340,16 @@
         <v>1.95</v>
       </c>
       <c r="AF295" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AG295" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AH295" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AI295" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AJ295" t="n">
         <v>2</v>
@@ -60358,19 +60358,19 @@
         <v>1.85</v>
       </c>
       <c r="AL295" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AM295" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AN295" t="n">
-        <v>0</v>
+        <v>1.78</v>
       </c>
       <c r="AO295" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AP295" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AQ295" t="n">
         <v>1.4</v>
@@ -60394,28 +60394,28 @@
         <v>3.6</v>
       </c>
       <c r="AX295" t="n">
-        <v>0</v>
+        <v>2.36</v>
       </c>
       <c r="AY295" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AZ295" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="BA295" t="n">
         <v>0</v>
       </c>
       <c r="BB295" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="BC295" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="BD295" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BE295" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="BF295" t="n">
         <v>5</v>
@@ -60588,13 +60588,13 @@
         <v>2</v>
       </c>
       <c r="AU296" t="n">
-        <v>2.01</v>
+        <v>2.03</v>
       </c>
       <c r="AV296" t="n">
         <v>1.69</v>
       </c>
       <c r="AW296" t="n">
-        <v>3.7</v>
+        <v>3.72</v>
       </c>
       <c r="AX296" t="n">
         <v>3</v>
@@ -60994,13 +60994,13 @@
         <v>1.06</v>
       </c>
       <c r="AU298" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AV298" t="n">
         <v>1.35</v>
       </c>
       <c r="AW298" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="AX298" t="n">
         <v>1.81</v>
@@ -61400,13 +61400,13 @@
         <v>1.17</v>
       </c>
       <c r="AU300" t="n">
-        <v>1.47</v>
+        <v>1.51</v>
       </c>
       <c r="AV300" t="n">
         <v>1.51</v>
       </c>
       <c r="AW300" t="n">
-        <v>2.98</v>
+        <v>3.02</v>
       </c>
       <c r="AX300" t="n">
         <v>1.72</v>
@@ -61603,13 +61603,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AU301" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="AV301" t="n">
         <v>1.37</v>
       </c>
       <c r="AW301" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="AX301" t="n">
         <v>1.14</v>
@@ -61806,13 +61806,13 @@
         <v>1.28</v>
       </c>
       <c r="AU302" t="n">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="AV302" t="n">
         <v>1.45</v>
       </c>
       <c r="AW302" t="n">
-        <v>3.13</v>
+        <v>3.16</v>
       </c>
       <c r="AX302" t="n">
         <v>2.3</v>
@@ -62415,13 +62415,13 @@
         <v>1.28</v>
       </c>
       <c r="AU305" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="AV305" t="n">
         <v>1.51</v>
       </c>
       <c r="AW305" t="n">
-        <v>3.57</v>
+        <v>3.59</v>
       </c>
       <c r="AX305" t="n">
         <v>1.5</v>
@@ -62618,13 +62618,13 @@
         <v>0.72</v>
       </c>
       <c r="AU306" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AV306" t="n">
         <v>1.56</v>
       </c>
       <c r="AW306" t="n">
-        <v>3.77</v>
+        <v>3.81</v>
       </c>
       <c r="AX306" t="n">
         <v>1.4</v>
@@ -63024,13 +63024,13 @@
         <v>0.11</v>
       </c>
       <c r="AU308" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="AV308" t="n">
         <v>1.27</v>
       </c>
       <c r="AW308" t="n">
-        <v>3.02</v>
+        <v>3.04</v>
       </c>
       <c r="AX308" t="n">
         <v>1.22</v>
@@ -63227,13 +63227,13 @@
         <v>1.44</v>
       </c>
       <c r="AU309" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="AV309" t="n">
         <v>1.7</v>
       </c>
       <c r="AW309" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="AX309" t="n">
         <v>2.1</v>
@@ -63430,13 +63430,13 @@
         <v>2</v>
       </c>
       <c r="AU310" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AV310" t="n">
         <v>1.7</v>
       </c>
       <c r="AW310" t="n">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="AX310" t="n">
         <v>4.2</v>
@@ -63836,13 +63836,13 @@
         <v>0.83</v>
       </c>
       <c r="AU312" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="AV312" t="n">
         <v>1.41</v>
       </c>
       <c r="AW312" t="n">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="AX312" t="n">
         <v>1.75</v>
@@ -64161,31 +64161,31 @@
         <v>10</v>
       </c>
       <c r="T314" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="U314" t="n">
-        <v>0</v>
+        <v>2.72</v>
       </c>
       <c r="V314" t="n">
-        <v>0</v>
+        <v>6.85</v>
       </c>
       <c r="W314" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X314" t="n">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="Y314" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="Z314" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AA314" t="n">
-        <v>0</v>
+        <v>4.28</v>
       </c>
       <c r="AB314" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AC314" t="n">
         <v>1.3</v>
@@ -64197,16 +64197,16 @@
         <v>9</v>
       </c>
       <c r="AF314" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG314" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH314" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AI314" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="AJ314" t="n">
         <v>1.67</v>
@@ -64215,19 +64215,19 @@
         <v>2.15</v>
       </c>
       <c r="AL314" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AM314" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AN314" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="AO314" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AP314" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AQ314" t="n">
         <v>1.38</v>
@@ -64251,28 +64251,28 @@
         <v>3.13</v>
       </c>
       <c r="AX314" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AY314" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AZ314" t="n">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="BA314" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="BB314" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BC314" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BD314" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BE314" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BF314" t="n">
         <v>8</v>
@@ -64648,13 +64648,13 @@
         <v>1.63</v>
       </c>
       <c r="AU316" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AV316" t="n">
         <v>1.52</v>
       </c>
       <c r="AW316" t="n">
-        <v>3.69</v>
+        <v>3.73</v>
       </c>
       <c r="AX316" t="n">
         <v>0</v>
@@ -64851,13 +64851,13 @@
         <v>1.17</v>
       </c>
       <c r="AU317" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="AV317" t="n">
         <v>1.53</v>
       </c>
       <c r="AW317" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="AX317" t="n">
         <v>7.9</v>
@@ -65257,13 +65257,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AU319" t="n">
-        <v>2.21</v>
+        <v>2.25</v>
       </c>
       <c r="AV319" t="n">
         <v>1.33</v>
       </c>
       <c r="AW319" t="n">
-        <v>3.54</v>
+        <v>3.58</v>
       </c>
       <c r="AX319" t="n">
         <v>1.16</v>
@@ -65460,13 +65460,13 @@
         <v>0.61</v>
       </c>
       <c r="AU320" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="AV320" t="n">
         <v>1.41</v>
       </c>
       <c r="AW320" t="n">
-        <v>3.73</v>
+        <v>3.75</v>
       </c>
       <c r="AX320" t="n">
         <v>0</v>
@@ -65663,13 +65663,13 @@
         <v>1.11</v>
       </c>
       <c r="AU321" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AV321" t="n">
         <v>1.58</v>
       </c>
       <c r="AW321" t="n">
-        <v>3.04</v>
+        <v>3.07</v>
       </c>
       <c r="AX321" t="n">
         <v>0</v>
@@ -65866,13 +65866,13 @@
         <v>1.28</v>
       </c>
       <c r="AU322" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AV322" t="n">
         <v>1.45</v>
       </c>
       <c r="AW322" t="n">
-        <v>3.48</v>
+        <v>3.5</v>
       </c>
       <c r="AX322" t="n">
         <v>1.17</v>
@@ -65988,31 +65988,31 @@
         <v>15</v>
       </c>
       <c r="T323" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="U323" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="V323" t="n">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="W323" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="X323" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="Y323" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="Z323" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AA323" t="n">
-        <v>0</v>
+        <v>5.54</v>
       </c>
       <c r="AB323" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC323" t="n">
         <v>1.66</v>
@@ -66024,16 +66024,16 @@
         <v>4.28</v>
       </c>
       <c r="AF323" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG323" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH323" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AI323" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="AJ323" t="n">
         <v>1.68</v>
@@ -66042,19 +66042,19 @@
         <v>2.07</v>
       </c>
       <c r="AL323" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AM323" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AN323" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AO323" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AP323" t="n">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AQ323" t="n">
         <v>2.06</v>
@@ -66072,49 +66072,49 @@
         <v>2</v>
       </c>
       <c r="AV323" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="AW323" t="n">
-        <v>3.35</v>
+        <v>3.49</v>
       </c>
       <c r="AX323" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AY323" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AZ323" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="BA323" t="n">
         <v>0</v>
       </c>
       <c r="BB323" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BC323" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="BD323" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="BE323" t="n">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="BF323" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BG323" t="n">
         <v>9</v>
       </c>
       <c r="BH323" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI323" t="n">
         <v>5</v>
       </c>
       <c r="BJ323" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK323" t="n">
         <v>14</v>
@@ -66272,13 +66272,13 @@
         <v>1.06</v>
       </c>
       <c r="AU324" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AV324" t="n">
         <v>1.38</v>
       </c>
       <c r="AW324" t="n">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="AX324" t="n">
         <v>1.52</v>
@@ -66678,13 +66678,13 @@
         <v>0.11</v>
       </c>
       <c r="AU326" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="AV326" t="n">
         <v>1.26</v>
       </c>
       <c r="AW326" t="n">
-        <v>2.93</v>
+        <v>2.94</v>
       </c>
       <c r="AX326" t="n">
         <v>1.34</v>
@@ -66881,13 +66881,13 @@
         <v>0.72</v>
       </c>
       <c r="AU327" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="AV327" t="n">
         <v>1.32</v>
       </c>
       <c r="AW327" t="n">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="AX327" t="n">
         <v>1.41</v>
@@ -67084,13 +67084,13 @@
         <v>2</v>
       </c>
       <c r="AU328" t="n">
-        <v>1.74</v>
+        <v>1.77</v>
       </c>
       <c r="AV328" t="n">
         <v>1.72</v>
       </c>
       <c r="AW328" t="n">
-        <v>3.46</v>
+        <v>3.49</v>
       </c>
       <c r="AX328" t="n">
         <v>3.28</v>
@@ -67206,31 +67206,31 @@
         <v>6</v>
       </c>
       <c r="T329" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="U329" t="n">
-        <v>0</v>
+        <v>2.94</v>
       </c>
       <c r="V329" t="n">
-        <v>0</v>
+        <v>7.3</v>
       </c>
       <c r="W329" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="X329" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="Y329" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="Z329" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AA329" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AB329" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AC329" t="n">
         <v>1.75</v>
@@ -67242,16 +67242,16 @@
         <v>4.2</v>
       </c>
       <c r="AF329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG329" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AH329" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AI329" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AJ329" t="n">
         <v>1.79</v>
@@ -67260,19 +67260,19 @@
         <v>1.91</v>
       </c>
       <c r="AL329" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AM329" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN329" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AO329" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AP329" t="n">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AQ329" t="n">
         <v>1.47</v>
@@ -67296,28 +67296,28 @@
         <v>3.2</v>
       </c>
       <c r="AX329" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AY329" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AZ329" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="BA329" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="BB329" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="BC329" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BD329" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BE329" t="n">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="BF329" t="n">
         <v>5</v>
@@ -67490,13 +67490,13 @@
         <v>0.11</v>
       </c>
       <c r="AU330" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="AV330" t="n">
         <v>1.27</v>
       </c>
       <c r="AW330" t="n">
-        <v>3.41</v>
+        <v>3.45</v>
       </c>
       <c r="AX330" t="n">
         <v>0</v>
@@ -67896,13 +67896,13 @@
         <v>1.17</v>
       </c>
       <c r="AU332" t="n">
-        <v>2.39</v>
+        <v>2.38</v>
       </c>
       <c r="AV332" t="n">
         <v>1.56</v>
       </c>
       <c r="AW332" t="n">
-        <v>3.95</v>
+        <v>3.94</v>
       </c>
       <c r="AX332" t="n">
         <v>1.3</v>
@@ -68302,13 +68302,13 @@
         <v>1.63</v>
       </c>
       <c r="AU334" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="AV334" t="n">
         <v>1.55</v>
       </c>
       <c r="AW334" t="n">
-        <v>3.53</v>
+        <v>3.54</v>
       </c>
       <c r="AX334" t="n">
         <v>2.6</v>
@@ -68505,13 +68505,13 @@
         <v>1.28</v>
       </c>
       <c r="AU335" t="n">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="AV335" t="n">
         <v>1.49</v>
       </c>
       <c r="AW335" t="n">
-        <v>3.49</v>
+        <v>3.5</v>
       </c>
       <c r="AX335" t="n">
         <v>1.64</v>
@@ -68708,13 +68708,13 @@
         <v>1.11</v>
       </c>
       <c r="AU336" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="AV336" t="n">
         <v>1.32</v>
       </c>
       <c r="AW336" t="n">
-        <v>3.08</v>
+        <v>3.11</v>
       </c>
       <c r="AX336" t="n">
         <v>1.3</v>
@@ -68911,13 +68911,13 @@
         <v>0.61</v>
       </c>
       <c r="AU337" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="AV337" t="n">
         <v>1.4</v>
       </c>
       <c r="AW337" t="n">
-        <v>3.66</v>
+        <v>3.7</v>
       </c>
       <c r="AX337" t="n">
         <v>0</v>
@@ -69114,13 +69114,13 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AU338" t="n">
-        <v>1.46</v>
+        <v>1.49</v>
       </c>
       <c r="AV338" t="n">
         <v>1.32</v>
       </c>
       <c r="AW338" t="n">
-        <v>2.78</v>
+        <v>2.81</v>
       </c>
       <c r="AX338" t="n">
         <v>2.77</v>
@@ -69317,13 +69317,13 @@
         <v>1.06</v>
       </c>
       <c r="AU339" t="n">
-        <v>2.33</v>
+        <v>2.35</v>
       </c>
       <c r="AV339" t="n">
         <v>1.38</v>
       </c>
       <c r="AW339" t="n">
-        <v>3.71</v>
+        <v>3.73</v>
       </c>
       <c r="AX339" t="n">
         <v>1.08</v>
@@ -69520,13 +69520,13 @@
         <v>0.78</v>
       </c>
       <c r="AU340" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="AV340" t="n">
         <v>1.39</v>
       </c>
       <c r="AW340" t="n">
-        <v>3.47</v>
+        <v>3.48</v>
       </c>
       <c r="AX340" t="n">
         <v>1.04</v>
@@ -69636,37 +69636,37 @@
         <v>3</v>
       </c>
       <c r="R341" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S341" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T341" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="U341" t="n">
-        <v>0</v>
+        <v>3.01</v>
       </c>
       <c r="V341" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="W341" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="X341" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="Y341" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="Z341" t="n">
-        <v>0</v>
+        <v>1.81</v>
       </c>
       <c r="AA341" t="n">
-        <v>0</v>
+        <v>4.38</v>
       </c>
       <c r="AB341" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AC341" t="n">
         <v>1.14</v>
@@ -69678,16 +69678,16 @@
         <v>10</v>
       </c>
       <c r="AF341" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG341" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AH341" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AI341" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AJ341" t="n">
         <v>1.67</v>
@@ -69696,19 +69696,19 @@
         <v>2.07</v>
       </c>
       <c r="AL341" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AM341" t="n">
-        <v>0</v>
+        <v>1.74</v>
       </c>
       <c r="AN341" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AO341" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AP341" t="n">
-        <v>0</v>
+        <v>4.94</v>
       </c>
       <c r="AQ341" t="n">
         <v>2.41</v>
@@ -69726,52 +69726,52 @@
         <v>1.96</v>
       </c>
       <c r="AV341" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="AW341" t="n">
-        <v>3.36</v>
+        <v>3.49</v>
       </c>
       <c r="AX341" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AY341" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AZ341" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BA341" t="n">
         <v>0</v>
       </c>
       <c r="BB341" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BC341" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="BD341" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BE341" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="BF341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG341" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH341" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI341" t="n">
         <v>4</v>
       </c>
-      <c r="BG341" t="n">
-        <v>4</v>
-      </c>
-      <c r="BH341" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI341" t="n">
-        <v>2</v>
-      </c>
       <c r="BJ341" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK341" t="n">
         <v>7</v>
-      </c>
-      <c r="BK341" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="342">
@@ -69926,13 +69926,13 @@
         <v>1.11</v>
       </c>
       <c r="AU342" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="AV342" t="n">
         <v>1.59</v>
       </c>
       <c r="AW342" t="n">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="AX342" t="n">
         <v>0</v>
@@ -70332,13 +70332,13 @@
         <v>2.08</v>
       </c>
       <c r="AU344" t="n">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="AV344" t="n">
         <v>1.75</v>
       </c>
       <c r="AW344" t="n">
-        <v>4.08</v>
+        <v>4.09</v>
       </c>
       <c r="AX344" t="n">
         <v>1.45</v>
@@ -70535,13 +70535,13 @@
         <v>2.08</v>
       </c>
       <c r="AU345" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="AV345" t="n">
         <v>1.73</v>
       </c>
       <c r="AW345" t="n">
-        <v>3.79</v>
+        <v>3.8</v>
       </c>
       <c r="AX345" t="n">
         <v>1.45</v>
@@ -70738,13 +70738,13 @@
         <v>2.05</v>
       </c>
       <c r="AU346" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="AV346" t="n">
         <v>1.53</v>
       </c>
       <c r="AW346" t="n">
-        <v>3.91</v>
+        <v>3.93</v>
       </c>
       <c r="AX346" t="n">
         <v>1.4</v>
@@ -70941,13 +70941,13 @@
         <v>2.08</v>
       </c>
       <c r="AU347" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="AV347" t="n">
         <v>1.71</v>
       </c>
       <c r="AW347" t="n">
-        <v>3.63</v>
+        <v>3.66</v>
       </c>
       <c r="AX347" t="n">
         <v>1.73</v>
